--- a/리볼트데이 스크립트 (ver.1.0).xlsx
+++ b/리볼트데이 스크립트 (ver.1.0).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\경일\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\GitHub\RevoltDay\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_EA1DB0AA6ECD327C0DBC3A566A4FC4F6E849167A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{16B0CB6D-7DAC-46F2-91D3-F4869FF326CF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="598" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="598" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정책" sheetId="2" r:id="rId1"/>
@@ -13724,6 +13725,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>초 생성 후 바로 삭제)</t>
     </r>
@@ -13741,7 +13744,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -13809,7 +13812,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13843,6 +13846,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14218,7 +14227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14371,11 +14380,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - 강조색3 2" xfId="2"/>
+    <cellStyle name="60% - 강조색3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14466,6 +14477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -14501,6 +14529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14676,7 +14721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
@@ -15906,7 +15951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:S17"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -16085,12 +16130,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K2861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2848" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2860" sqref="H2860"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A2598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2616" sqref="A2616:H2616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -40370,10 +40415,16 @@
       </c>
     </row>
     <row r="2494" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2494">
+      <c r="A2494" s="64"/>
+      <c r="B2494" s="64"/>
+      <c r="C2494" s="64"/>
+      <c r="D2494" s="64"/>
+      <c r="E2494" s="64">
         <v>9</v>
       </c>
-      <c r="H2494" s="11" t="s">
+      <c r="F2494" s="64"/>
+      <c r="G2494" s="64"/>
+      <c r="H2494" s="65" t="s">
         <v>2511</v>
       </c>
     </row>
@@ -41507,22 +41558,24 @@
       <c r="J2615" s="11"/>
     </row>
     <row r="2616" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2616">
+      <c r="A2616" s="64">
         <v>107</v>
       </c>
-      <c r="B2616" s="11" t="s">
+      <c r="B2616" s="65" t="s">
         <v>871</v>
       </c>
-      <c r="C2616" s="11" t="s">
+      <c r="C2616" s="65" t="s">
         <v>872</v>
       </c>
-      <c r="E2616">
+      <c r="D2616" s="64"/>
+      <c r="E2616" s="64">
         <v>1</v>
       </c>
-      <c r="F2616" s="11" t="s">
+      <c r="F2616" s="65" t="s">
         <v>866</v>
       </c>
-      <c r="H2616" s="11" t="s">
+      <c r="G2616" s="64"/>
+      <c r="H2616" s="65" t="s">
         <v>2574</v>
       </c>
       <c r="K2616" s="9" t="s">
